--- a/apps/dataset/template/excel_template_zh_Hant.xlsx
+++ b/apps/dataset/template/excel_template_zh_Hant.xlsx
@@ -33,7 +33,7 @@
     <t>分段標題（選填）</t>
   </si>
   <si>
-    <t>分段內容（必填，問題答案，最長不超過4096個字元）</t>
+    <t>分段內容（必填，問題答案）</t>
   </si>
   <si>
     <t>問題（選填，單元格內一行一個）</t>
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="2"/>
